--- a/Desktop/코딩/java/자료구조와 함께하는 알고리즘/자료구조 알고리즘 진도표.xlsx
+++ b/Desktop/코딩/java/자료구조와 함께하는 알고리즘/자료구조 알고리즘 진도표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\차승하 010-3038-7458\Desktop\코딩\java\자료구조와 함께하는 알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE98A0-6A5A-4B47-8D97-C9CA371D4437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C08FF-C5D4-4DF4-A380-B7BA63F99113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D0BDD30-B407-4C78-9D23-B0A54787E3FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>일수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>1.1-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제진도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554DC2B1-AA53-4D96-89A2-E240CF843902}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,7 +572,7 @@
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +582,11 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,8 +596,11 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -592,8 +610,11 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -603,8 +624,11 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -614,8 +638,11 @@
       <c r="C5">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -623,7 +650,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -634,7 +661,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,7 +672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -656,7 +683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -667,7 +694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -678,7 +705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -689,7 +716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -697,7 +724,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,7 +735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -719,7 +746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
